--- a/Digital Payment Survey.xlsx
+++ b/Digital Payment Survey.xlsx
@@ -8,19 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bradfordle/Library/Mobile Documents/com~apple~CloudDocs/Georgia Tech/CS 6750 - HCI/Assignments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{335DAF91-6D9D-CA48-9273-A3AD7AF7A837}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D47F9E-CE2A-AE48-A454-683FA7617E28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="2960" windowWidth="23160" windowHeight="12260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Venmo Users" sheetId="2" r:id="rId2"/>
+    <sheet name="Age Distribution" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Age Distribution'!$A$1:$A$90</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$2:$AG$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Venmo Users'!$A$1:$C$89</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="144">
   <si>
     <t>How old are you?</t>
   </si>
@@ -428,13 +445,37 @@
   </si>
   <si>
     <t>\</t>
+  </si>
+  <si>
+    <t>Cash, Bank</t>
+  </si>
+  <si>
+    <t>Bank</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>18-30</t>
+  </si>
+  <si>
+    <t>31-45</t>
+  </si>
+  <si>
+    <t>46-60</t>
+  </si>
+  <si>
+    <t>60+</t>
+  </si>
+  <si>
+    <t>AGE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -446,6 +487,14 @@
       <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -488,14 +537,116 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="14">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -506,6 +657,1792 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Percentage</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> of Venmo Users</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Venmo Users'!$E$9:$E$10</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Venmo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Other</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Venmo Users'!$F$9:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D45A-D746-92C6-B27AF5C91897}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Age</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Group</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Age Distribution'!$C$4:$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>18-30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31-45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46-60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Age Distribution'!$D$4:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EDDC-EC43-A524-49DF019B791E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="301703264"/>
+        <c:axId val="301756656"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="301703264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="301756656"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="301756656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="301703264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>730250</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4231C909-CD31-804D-8581-A47759C345CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>730250</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6765FB9-4CDC-AF40-8802-0E0235AE94A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -832,9 +2769,9 @@
   <dimension ref="A1:AG91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="T1" sqref="T1"/>
-      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3973,6 +5910,1535 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:AG91" xr:uid="{B145F5E2-6A5C-7344-AD5D-4F608FCBAF09}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35A0E4D9-BD5B-6040-BF58-CFA971590265}">
+  <dimension ref="A1:F89"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>138</v>
+      </c>
+      <c r="F10">
+        <f>89-58</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>137</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29">
+        <v>29</v>
+      </c>
+      <c r="C29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30">
+        <v>30</v>
+      </c>
+      <c r="C30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31">
+        <v>31</v>
+      </c>
+      <c r="C31" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>32</v>
+      </c>
+      <c r="C32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34">
+        <v>34</v>
+      </c>
+      <c r="C34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35">
+        <v>35</v>
+      </c>
+      <c r="C35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36">
+        <v>36</v>
+      </c>
+      <c r="C36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37">
+        <v>37</v>
+      </c>
+      <c r="C37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39">
+        <v>39</v>
+      </c>
+      <c r="C39" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40">
+        <v>40</v>
+      </c>
+      <c r="C40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41">
+        <v>41</v>
+      </c>
+      <c r="C41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>42</v>
+      </c>
+      <c r="C42" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43">
+        <v>43</v>
+      </c>
+      <c r="C43" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44">
+        <v>44</v>
+      </c>
+      <c r="C44" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>90</v>
+      </c>
+      <c r="B45">
+        <v>45</v>
+      </c>
+      <c r="C45" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46">
+        <v>46</v>
+      </c>
+      <c r="C46" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>40</v>
+      </c>
+      <c r="B47">
+        <v>47</v>
+      </c>
+      <c r="C47" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48">
+        <v>48</v>
+      </c>
+      <c r="C48" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49">
+        <v>49</v>
+      </c>
+      <c r="C49" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>40</v>
+      </c>
+      <c r="B50">
+        <v>50</v>
+      </c>
+      <c r="C50" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>40</v>
+      </c>
+      <c r="B51">
+        <v>51</v>
+      </c>
+      <c r="C51" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>40</v>
+      </c>
+      <c r="B52">
+        <v>52</v>
+      </c>
+      <c r="C52" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>43</v>
+      </c>
+      <c r="B53">
+        <v>53</v>
+      </c>
+      <c r="C53" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>40</v>
+      </c>
+      <c r="B54">
+        <v>54</v>
+      </c>
+      <c r="C54" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>40</v>
+      </c>
+      <c r="B55">
+        <v>55</v>
+      </c>
+      <c r="C55" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>40</v>
+      </c>
+      <c r="B56">
+        <v>56</v>
+      </c>
+      <c r="C56" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>40</v>
+      </c>
+      <c r="B57">
+        <v>57</v>
+      </c>
+      <c r="C57" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>40</v>
+      </c>
+      <c r="B58">
+        <v>58</v>
+      </c>
+      <c r="C58" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>40</v>
+      </c>
+      <c r="B59">
+        <v>59</v>
+      </c>
+      <c r="C59" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>40</v>
+      </c>
+      <c r="B60">
+        <v>60</v>
+      </c>
+      <c r="C60" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>40</v>
+      </c>
+      <c r="B61">
+        <v>61</v>
+      </c>
+      <c r="C61" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>107</v>
+      </c>
+      <c r="B62">
+        <v>62</v>
+      </c>
+      <c r="C62" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>137</v>
+      </c>
+      <c r="B63">
+        <v>63</v>
+      </c>
+      <c r="C63" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>40</v>
+      </c>
+      <c r="B64">
+        <v>64</v>
+      </c>
+      <c r="C64" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>40</v>
+      </c>
+      <c r="B65">
+        <v>65</v>
+      </c>
+      <c r="C65" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>40</v>
+      </c>
+      <c r="B66">
+        <v>66</v>
+      </c>
+      <c r="C66" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>40</v>
+      </c>
+      <c r="B67">
+        <v>67</v>
+      </c>
+      <c r="C67" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>40</v>
+      </c>
+      <c r="B68">
+        <v>68</v>
+      </c>
+      <c r="C68" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>40</v>
+      </c>
+      <c r="B69">
+        <v>69</v>
+      </c>
+      <c r="C69" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>137</v>
+      </c>
+      <c r="B70">
+        <v>70</v>
+      </c>
+      <c r="C70" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>40</v>
+      </c>
+      <c r="B71">
+        <v>71</v>
+      </c>
+      <c r="C71" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>57</v>
+      </c>
+      <c r="B72">
+        <v>72</v>
+      </c>
+      <c r="C72" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>40</v>
+      </c>
+      <c r="B73">
+        <v>73</v>
+      </c>
+      <c r="C73" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>112</v>
+      </c>
+      <c r="B74">
+        <v>74</v>
+      </c>
+      <c r="C74" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>40</v>
+      </c>
+      <c r="B75">
+        <v>75</v>
+      </c>
+      <c r="C75" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>40</v>
+      </c>
+      <c r="B76">
+        <v>76</v>
+      </c>
+      <c r="C76" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>57</v>
+      </c>
+      <c r="B77">
+        <v>77</v>
+      </c>
+      <c r="C77" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>40</v>
+      </c>
+      <c r="B78">
+        <v>78</v>
+      </c>
+      <c r="C78" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>40</v>
+      </c>
+      <c r="B79">
+        <v>79</v>
+      </c>
+      <c r="C79" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>40</v>
+      </c>
+      <c r="B80">
+        <v>80</v>
+      </c>
+      <c r="C80" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>40</v>
+      </c>
+      <c r="B81">
+        <v>81</v>
+      </c>
+      <c r="C81" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>113</v>
+      </c>
+      <c r="B82">
+        <v>82</v>
+      </c>
+      <c r="C82" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>57</v>
+      </c>
+      <c r="B83">
+        <v>83</v>
+      </c>
+      <c r="C83" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>40</v>
+      </c>
+      <c r="B84">
+        <v>84</v>
+      </c>
+      <c r="C84" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>40</v>
+      </c>
+      <c r="B85">
+        <v>85</v>
+      </c>
+      <c r="C85" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>114</v>
+      </c>
+      <c r="B86">
+        <v>86</v>
+      </c>
+      <c r="C86" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>92</v>
+      </c>
+      <c r="B87">
+        <v>87</v>
+      </c>
+      <c r="C87" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>40</v>
+      </c>
+      <c r="B88">
+        <v>88</v>
+      </c>
+      <c r="C88" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>115</v>
+      </c>
+      <c r="B89">
+        <v>89</v>
+      </c>
+      <c r="C89" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C89" xr:uid="{01C0ECEC-ACA6-3E47-8D09-359A96281BAF}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C10120B9-3ABD-1E46-81B7-5AE5124C1876}">
+  <dimension ref="A1:D90"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>23</v>
+      </c>
+      <c r="D8">
+        <f>SUM(D4:D7)</f>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:A90" xr:uid="{ED6B0A14-4846-C449-AED2-2622B329CF1F}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A90">
+      <sortCondition ref="A1:A90"/>
+    </sortState>
+  </autoFilter>
+  <conditionalFormatting sqref="A2:A1048576">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="greaterThan">
+      <formula>60</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="between">
+      <formula>46</formula>
+      <formula>60</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="between">
+      <formula>31</formula>
+      <formula>45</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="between">
+      <formula>0</formula>
+      <formula>30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>